--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006143</t>
-  </si>
-  <si>
-    <t>006144</t>
-  </si>
-  <si>
-    <t>恒生前海中证质量成长低波动指数A</t>
-  </si>
-  <si>
-    <t>恒生前海中证质量成长低波动指数C</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>94.39</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>0.0031</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,803 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.5</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,779 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2500,7 +2501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2511,17 +2512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2531,14 +2552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.09</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2547,14 +2590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.5</v>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2563,14 +2628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2579,13 +2666,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -648,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4236</t>
+          <t>0.9025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2678</t>
+          <t>0.4657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -714,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000082</t>
+          <t>004686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实研究阿尔法股票</t>
+          <t>华夏研究精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.3024</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0556</t>
+          <t>0.2790</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -790,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>005449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>华夏行业龙头混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>88.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.2785</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -828,36 +812,492 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>000082</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>嘉实研究阿尔法股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.2592</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -922,36 +1362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.96</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6930</t>
+          <t>1.2558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -975,21 +1415,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0009</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -998,36 +1438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011516</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合A</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3581</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1036,32 +1476,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>上投摩根核心优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>85.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3297</t>
+          <t>0.2652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1074,36 +1514,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2299</t>
+          <t>0.2533</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1122,26 +1562,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1165,21 +1605,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1923</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1188,36 +1628,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530011</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信内生动力混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1537</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1226,36 +1666,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>华夏消费优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.1896</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1264,36 +1704,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1302,36 +1742,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012661</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金A</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1790,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1388,22 +1828,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1416,36 +1856,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011517</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合C</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1454,36 +1894,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>华夏消费优选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1492,36 +1932,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002313</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>76.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1530,36 +1970,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>002313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>泰达宏利新起点灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1568,36 +2008,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012662</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金C</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1606,36 +2046,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1644,36 +2084,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>014641</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>上投摩根行业轮动混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1738,36 +2176,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>37.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>88.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2558</t>
+          <t>1.6930</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1791,21 +2229,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>92.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8549</t>
+          <t>1.0009</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1814,36 +2252,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>011516</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>嘉实浦盈一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3278</t>
+          <t>0.3581</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1852,32 +2290,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>370024</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根核心优选混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.27</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2652</t>
+          <t>0.3297</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1890,36 +2328,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>92.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2533</t>
+          <t>0.2299</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1938,26 +2376,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2528</t>
+          <t>0.2015</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1981,21 +2419,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2463</t>
+          <t>0.1923</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2004,36 +2442,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>530011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>建信内生动力混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2424</t>
+          <t>0.1537</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2042,36 +2480,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011911</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1896</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2080,36 +2518,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0488</t>
+          <t>0.0667</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2118,36 +2556,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>012661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0470</t>
+          <t>0.0469</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2166,26 +2604,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.41</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2204,22 +2642,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0406</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2232,36 +2670,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160722</t>
+          <t>011517</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
+          <t>嘉实浦盈一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2270,36 +2708,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011912</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2308,36 +2746,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>002313</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>泰达宏利新起点灵活配置混合B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2346,36 +2784,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002313</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30.41</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2384,36 +2822,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>012662</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2422,36 +2860,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>88.26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2460,34 +2898,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>014641</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,7 +2962,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2562,26 +3002,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9025</t>
+          <t>0.4236</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2590,36 +3030,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4657</t>
+          <t>0.2678</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2628,36 +3068,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004686</t>
+          <t>000082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏研究精选股票</t>
+          <t>嘉实研究阿尔法股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>87.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3024</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2676,26 +3116,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2790</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2704,36 +3144,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005449</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏行业龙头混合</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2785</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2742,492 +3182,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000082</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实研究阿尔法股票</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2592</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011911</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2249</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1517</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011936</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏阿尔法精选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000507</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利宏达混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011912</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011937</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏阿尔法精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>162211</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰达宏利品质生活混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001254</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>33.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000508</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰达宏利宏达混合B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001430</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮乐享收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002313</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3241,112 +3225,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.09</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -566,6 +583,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,820 +2017,6 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方金融主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2558</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8549</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>370024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2533</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004686</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏研究精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2528</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000082</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实研究阿尔法股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2463</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2424</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011911</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1896</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001254</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012245</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011912</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>162211</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰达宏利品质生活混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002313</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014641</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2176,36 +2081,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.96</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6930</t>
+          <t>1.2558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2229,21 +2134,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0009</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2252,36 +2157,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011516</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合A</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3581</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2290,32 +2195,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>上投摩根核心优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>85.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3297</t>
+          <t>0.2652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2328,36 +2233,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2299</t>
+          <t>0.2533</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2376,26 +2281,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2419,21 +2324,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1923</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2442,36 +2347,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530011</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信内生动力混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1537</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2480,36 +2385,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>华夏消费优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.1896</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2518,36 +2423,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2556,36 +2461,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012661</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金A</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2604,26 +2509,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2642,22 +2547,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2670,36 +2575,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011517</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合C</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2708,36 +2613,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>华夏消费优选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2746,36 +2651,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002313</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>76.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2784,36 +2689,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>002313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>泰达宏利新起点灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2822,36 +2727,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012662</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金C</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2860,36 +2765,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2898,36 +2803,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>014641</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>上投摩根行业轮动混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2936,6 +2839,822 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3219,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
+++ b/数据整理/stocks/A股/深证主板/000935-四川双马.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.57</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>4.09</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.88</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1284,7 +1889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2017,820 +2622,6 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方金融主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2558</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8549</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>370024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2533</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004686</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏研究精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2528</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000082</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实研究阿尔法股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2463</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2424</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011911</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1896</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001254</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012245</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011912</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>162211</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰达宏利品质生活混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002313</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014641</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.32</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2895,36 +2686,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.96</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6930</t>
+          <t>1.2558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2948,21 +2739,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0009</t>
+          <t>0.8549</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2971,36 +2762,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011516</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合A</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3581</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3009,32 +2800,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>上投摩根核心优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>85.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3297</t>
+          <t>0.2652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3047,36 +2838,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2299</t>
+          <t>0.2533</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3095,26 +2886,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3138,21 +2929,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1923</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3161,36 +2952,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530011</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信内生动力混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1537</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3199,36 +2990,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>华夏消费优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.1896</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3237,36 +3028,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3275,36 +3066,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012661</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金A</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3323,26 +3114,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3361,22 +3152,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3389,36 +3180,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011517</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合C</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3427,36 +3218,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>华夏消费优选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -3465,36 +3256,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002313</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>76.13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -3503,36 +3294,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>002313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>泰达宏利新起点灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3541,36 +3332,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012662</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发恒益一年持有期混合型证券投资基金C</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3579,36 +3370,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3617,36 +3408,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>014641</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>上投摩根行业轮动混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3655,6 +3444,822 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3938,7 +4543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
